--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilsuhanov/PycharmProjects/Shadow-Realm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241AC7EF-11A4-E545-87FA-BCDDD464BD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB978E1-B100-A248-BB04-230D3148B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1220" windowWidth="25380" windowHeight="14360" xr2:uid="{6769C36C-CEA6-0940-B649-D95484066869}"/>
+    <workbookView xWindow="6100" yWindow="500" windowWidth="25380" windowHeight="14360" xr2:uid="{6769C36C-CEA6-0940-B649-D95484066869}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="quest2" sheetId="3" r:id="rId3"/>
     <sheet name="quest3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,11 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="132">
   <si>
     <t>text</t>
   </si>
   <si>
+    <t>выбор</t>
+  </si>
+  <si>
+    <t>Ты в городе. Куда пойти?</t>
+  </si>
+  <si>
     <t>Варианты выбора пользователя:</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
     <t>Появляясь в белом коридоре,на вашу голову с потолка осыпается штукатурка. Оглядевшись,видите только 2 двери. Справа и слева от вас.</t>
   </si>
   <si>
+    <t>Правая дверь:2;Левая дверь:0</t>
+  </si>
+  <si>
     <t>1.Если пользоатель выберет левую дверь,</t>
   </si>
   <si>
@@ -122,18 +131,9 @@
     <t>Зайти в башню</t>
   </si>
   <si>
-    <t xml:space="preserve">Зайдя во внутрь,перед вами появляется озеро,в котором плавают крокодилы. У вас под рукой веревка. Придумайте план и переберитесь через </t>
-  </si>
-  <si>
     <t>Взять веревку</t>
   </si>
   <si>
-    <t>озеро.</t>
-  </si>
-  <si>
-    <t>Придумать план</t>
-  </si>
-  <si>
     <t>Отлично! Вы преодалели озеро(без вреда для вас). Радовались вы не долго,вы оказались в лазерной комнате. Передвигайтесь аккуратно,</t>
   </si>
   <si>
@@ -170,7 +170,7 @@
     <t>Собрать код</t>
   </si>
   <si>
-    <t>Вы присели на ступеньку и заметили,что на каждомй из них сесть определенный символ.</t>
+    <t>Вы присели на ступеньку и заметили,что на каждом из них сесть определенный символ.</t>
   </si>
   <si>
     <t>Вы спустились вниз и по дороге к 34 ступеньке запоминали смволы. И вот вы снава тут. Перед вами появилось табло с кодом. Вы ввели код.</t>
@@ -224,6 +224,9 @@
     <t>Квест завершен. Вам зачислены 30 КОРОН</t>
   </si>
   <si>
+    <t>Вернуться в город</t>
+  </si>
+  <si>
     <t>Варианты выбора пользователя</t>
   </si>
   <si>
@@ -233,6 +236,9 @@
     <t>Начать диалог с Йотой</t>
   </si>
   <si>
+    <t>https://phonoteka.org/uploads/posts/2023-03/1680105244_phonoteka-org-p-bashnya-maga-art-instagram-82.jpg</t>
+  </si>
+  <si>
     <t>Приветствую тебя,путник.Наверняка,ты уже многое знаешь о том,какие загадочные тайны храниятся в моем замке. Но чтобы получить проход к ним,тебе нужно построить портал</t>
   </si>
   <si>
@@ -251,7 +257,7 @@
     <t>Отправится в путь</t>
   </si>
   <si>
-    <t xml:space="preserve">Вы находите зуб ддракона в пещере на другой стороне горы, но вы сталкиваетесь с множеством опасностей на пути туда и обратно. </t>
+    <t xml:space="preserve">Вы находите зуб дракона в пещере на другой стороне горы, но вы сталкиваетесь с множеством опасностей на пути туда и обратно. </t>
   </si>
   <si>
     <t>Сражаться с пауками</t>
@@ -269,7 +275,7 @@
     <t>Соорудить лестницу</t>
   </si>
   <si>
-    <t>Поздравляем! Вы побрались до верщины горы! Вм предстоит найти фиолетовый магический присталл. Перед вами куча одинаковый камней. Какой же из них настоящий?</t>
+    <t>Поздравляем! Вы добрались до верщины горы! Вам предстоит найти фиолетовый магический присталл. Перед вами куча одинаковый камней. Какой же из них настоящий?</t>
   </si>
   <si>
     <t>Воспользоваться подсказкой</t>
@@ -293,7 +299,7 @@
     <t>Воспользоваться магией</t>
   </si>
   <si>
-    <t>Вы на земле. Перед вами чудестная арка,очень похожа на ту,что у вас в карте. Это в ход в зеленый лес,в котором много смертоносных насекомых .. Вы должны собрать лечебный корень у болота.</t>
+    <t>Вы на земле. Перед вами чудестная арка,очень похожа на ту,что у вас в карте. Это вход в зеленый лес,в котором много смертоносных насекомых .. Вы должны собрать лечебный корень у болота.</t>
   </si>
   <si>
     <t>Зайти в арку</t>
@@ -332,9 +338,6 @@
     <t>Квест завершен. Вы получаете 20 КОРОН.</t>
   </si>
   <si>
-    <t>https://phonoteka.org/uploads/posts/2023-03/1680105244_phonoteka-org-p-bashnya-maga-art-instagram-82.jpg</t>
-  </si>
-  <si>
     <t>Пригнись! Не успев оглядеть место,в котором вы оказались,на вас чуть не упало что-то тяжелое.</t>
   </si>
   <si>
@@ -425,32 +428,17 @@
     <t>Ваша команда добила противников и вы одержали победу!</t>
   </si>
   <si>
-    <t>выбор</t>
-  </si>
-  <si>
-    <t>Ты в городе. Куда пойти?</t>
-  </si>
-  <si>
-    <t>К башне мага:quest2;К ярморке:quest1;К колодцу:quest3</t>
-  </si>
-  <si>
-    <t>Правая дверь:2;Левая дверь:0</t>
-  </si>
-  <si>
-    <t>Вернуться в город</t>
-  </si>
-  <si>
-    <t>После тяжелой мисси, та решаешь сходить в таверну.</t>
-  </si>
-  <si>
-    <t>Транжирить</t>
+    <t>К башне мага:quest2;К ярмарке:quest1;К колодцу:quest3</t>
+  </si>
+  <si>
+    <t>Зайдя во внутрь,перед вами появляется озеро,в котором плавают крокодилы. У вас под рукой веревка. Придумайте план и переберитесь через озеро.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,6 +459,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -817,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA3B630-6914-A148-8E08-A5FEC42B172B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
@@ -834,41 +829,1218 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F775487-84AB-8248-8988-91DB774A2140}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="139.33203125" customWidth="1"/>
+    <col min="1" max="1" width="144" customWidth="1"/>
     <col min="2" max="2" width="41.1640625" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
@@ -878,270 +2050,262 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1157,10 +2321,10 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="140.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.5" customWidth="1"/>
@@ -1171,157 +2335,157 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1329,7 +2493,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{39C83A38-4FA2-184A-B093-00B44EF592AC}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7B69D6D7-87F6-EA47-B22B-0BE986F832F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1343,10 +2507,10 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="107" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1354,155 +2518,155 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2"/>
     </row>
